--- a/文書管理フォルダ/外部設計用フォルダ/疑似ページ部分/疑似ページ（講師）.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/疑似ページ部分/疑似ページ（講師）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\疑似ページ部分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E3BB3C-0F34-4DEE-B73E-24632B3B4A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD7AA80-41F8-40A8-86A3-ABC13BD09B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -218,21 +218,18 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>講師の方であるか判断する。講師ではない場合はログインできない。</t>
-    <rPh sb="0" eb="2">
-      <t>コウシ</t>
+    <t>ログイン状態を判定し、ログイン状態でなければログインページにリダイレクトを行う。</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>カタ</t>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンダン</t>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウシ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バアイ</t>
+    <rPh sb="37" eb="38">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -663,6 +660,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,9 +737,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1819,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1829,150 +1826,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="45" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="42" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="44"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="32" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="37"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="38"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -3584,15 +3583,15 @@
       <c r="B43" s="6"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="46" t="s">
+      <c r="E43" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>

--- a/文書管理フォルダ/外部設計用フォルダ/疑似ページ部分/疑似ページ（講師）.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/疑似ページ部分/疑似ページ（講師）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\疑似ページ部分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD7AA80-41F8-40A8-86A3-ABC13BD09B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678E6C43-AE67-4BBD-A0C2-0F140F1ED681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -230,6 +230,20 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仮</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>講師専用のページ</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -606,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -736,6 +750,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1817,7 +1834,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AN1"/>
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1871,9 +1888,7 @@
         <v>4</v>
       </c>
       <c r="AG1" s="46"/>
-      <c r="AH1" s="39" t="s">
-        <v>22</v>
-      </c>
+      <c r="AH1" s="39"/>
       <c r="AI1" s="39"/>
       <c r="AJ1" s="39"/>
       <c r="AK1" s="39"/>
@@ -1897,7 +1912,9 @@
       </c>
       <c r="L2" s="41"/>
       <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
+      <c r="N2" s="42" t="s">
+        <v>26</v>
+      </c>
       <c r="O2" s="42"/>
       <c r="P2" s="42"/>
       <c r="Q2" s="42"/>
@@ -1910,7 +1927,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
+      <c r="Y2" s="47">
+        <v>43986</v>
+      </c>
       <c r="Z2" s="42"/>
       <c r="AA2" s="42"/>
       <c r="AB2" s="42"/>
@@ -1945,7 +1964,9 @@
       </c>
       <c r="L3" s="34"/>
       <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
+      <c r="N3" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
@@ -5119,7 +5140,9 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
       <c r="D79" s="16"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
@@ -5161,7 +5184,9 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
+      <c r="C80" s="15">
+        <v>2</v>
+      </c>
       <c r="D80" s="16"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
@@ -5203,7 +5228,9 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
+      <c r="C81" s="15">
+        <v>3</v>
+      </c>
       <c r="D81" s="16"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
@@ -5245,7 +5272,9 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
+      <c r="C82" s="15">
+        <v>4</v>
+      </c>
       <c r="D82" s="16"/>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
@@ -5287,7 +5316,9 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
+      <c r="C83" s="15">
+        <v>5</v>
+      </c>
       <c r="D83" s="16"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
@@ -5329,7 +5360,9 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
+      <c r="C84" s="15">
+        <v>6</v>
+      </c>
       <c r="D84" s="16"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
@@ -5371,7 +5404,9 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
+      <c r="C85" s="15">
+        <v>7</v>
+      </c>
       <c r="D85" s="16"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
@@ -5413,7 +5448,9 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
+      <c r="C86" s="15">
+        <v>8</v>
+      </c>
       <c r="D86" s="16"/>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
@@ -5455,7 +5492,9 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
+      <c r="C87" s="15">
+        <v>9</v>
+      </c>
       <c r="D87" s="16"/>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
@@ -5497,7 +5536,9 @@
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
+      <c r="C88" s="15">
+        <v>10</v>
+      </c>
       <c r="D88" s="16"/>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
@@ -5539,7 +5580,9 @@
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
+      <c r="C89" s="15">
+        <v>11</v>
+      </c>
       <c r="D89" s="16"/>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>

--- a/文書管理フォルダ/外部設計用フォルダ/疑似ページ部分/疑似ページ（講師）.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/疑似ページ部分/疑似ページ（講師）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\疑似ページ部分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678E6C43-AE67-4BBD-A0C2-0F140F1ED681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74789DAF-F6EF-471A-977B-A88E7FB1C257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -245,6 +245,22 @@
     <rPh sb="2" eb="4">
       <t>センヨウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>corptitle</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -740,6 +756,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,9 +769,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1833,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1884,10 +1900,10 @@
       <c r="AC1" s="32"/>
       <c r="AD1" s="32"/>
       <c r="AE1" s="32"/>
-      <c r="AF1" s="46" t="s">
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
+      <c r="AG1" s="47"/>
       <c r="AH1" s="39"/>
       <c r="AI1" s="39"/>
       <c r="AJ1" s="39"/>
@@ -1927,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="42"/>
-      <c r="Y2" s="47">
+      <c r="Y2" s="43">
         <v>43986</v>
       </c>
       <c r="Z2" s="42"/>
@@ -1936,17 +1952,17 @@
       <c r="AC2" s="42"/>
       <c r="AD2" s="42"/>
       <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="AF2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="46"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
@@ -5143,18 +5159,26 @@
       <c r="C79" s="15">
         <v>1</v>
       </c>
-      <c r="D79" s="16"/>
+      <c r="D79" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
